--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H2">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I2">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J2">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>148.067422587639</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N2">
-        <v>148.067422587639</v>
+        <v>460.154182</v>
       </c>
       <c r="O2">
-        <v>0.9612238938119871</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P2">
-        <v>0.9612238938119871</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q2">
-        <v>437.9068666366613</v>
+        <v>556.2317676612354</v>
       </c>
       <c r="R2">
-        <v>437.9068666366613</v>
+        <v>5006.085908951118</v>
       </c>
       <c r="S2">
-        <v>0.04192224439020454</v>
+        <v>0.04522260632615142</v>
       </c>
       <c r="T2">
-        <v>0.04192224439020454</v>
+        <v>0.04801783225636747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H3">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I3">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J3">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.99674646997622</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N3">
-        <v>2.99674646997622</v>
+        <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.01945427468309524</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P3">
-        <v>0.01945427468309524</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q3">
-        <v>8.862826365435199</v>
+        <v>0.2286845471573333</v>
       </c>
       <c r="R3">
-        <v>8.862826365435199</v>
+        <v>2.058160924416</v>
       </c>
       <c r="S3">
-        <v>0.000848467108390889</v>
+        <v>1.859244985674525E-05</v>
       </c>
       <c r="T3">
-        <v>0.000848467108390889</v>
+        <v>1.974165602082613E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H4">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I4">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J4">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91615214872979</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N4">
-        <v>1.91615214872979</v>
+        <v>17.168938</v>
       </c>
       <c r="O4">
-        <v>0.01243927392906491</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P4">
-        <v>0.01243927392906491</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q4">
-        <v>5.666987165611794</v>
+        <v>20.75371496375133</v>
       </c>
       <c r="R4">
-        <v>5.666987165611794</v>
+        <v>186.783434673762</v>
       </c>
       <c r="S4">
-        <v>0.000542519058304807</v>
+        <v>0.001687312980265604</v>
       </c>
       <c r="T4">
-        <v>0.000542519058304807</v>
+        <v>0.001791606416181551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H5">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I5">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J5">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.06019270601575</v>
+        <v>1.951202</v>
       </c>
       <c r="N5">
-        <v>1.06019270601575</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O5">
-        <v>0.006882557575852624</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P5">
-        <v>0.006882557575852624</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q5">
-        <v>3.135501772157936</v>
+        <v>7.075805762365999</v>
       </c>
       <c r="R5">
-        <v>3.135501772157936</v>
+        <v>63.68225186129399</v>
       </c>
       <c r="S5">
-        <v>0.0003001717524730857</v>
+        <v>0.0005752752665983547</v>
       </c>
       <c r="T5">
-        <v>0.0003001717524730857</v>
+        <v>0.0006108332424171386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.420814448426</v>
+        <v>3.626383</v>
       </c>
       <c r="H6">
-        <v>23.420814448426</v>
+        <v>10.879149</v>
       </c>
       <c r="I6">
-        <v>0.3453820178010689</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J6">
-        <v>0.3453820178010689</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>148.067422587639</v>
+        <v>1.490433</v>
       </c>
       <c r="N6">
-        <v>148.067422587639</v>
+        <v>2.980866</v>
       </c>
       <c r="O6">
-        <v>0.9612238938119871</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P6">
-        <v>0.9612238938119871</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q6">
-        <v>3467.859630281774</v>
+        <v>5.404880893839</v>
       </c>
       <c r="R6">
-        <v>3467.859630281774</v>
+        <v>32.429285363034</v>
       </c>
       <c r="S6">
-        <v>0.3319894480033845</v>
+        <v>0.000439426180078734</v>
       </c>
       <c r="T6">
-        <v>0.3319894480033845</v>
+        <v>0.0003110581825956525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H7">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J7">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99674646997622</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N7">
-        <v>2.99674646997622</v>
+        <v>460.154182</v>
       </c>
       <c r="O7">
-        <v>0.01945427468309524</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P7">
-        <v>0.01945427468309524</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q7">
-        <v>70.18624302228866</v>
+        <v>4118.690481844607</v>
       </c>
       <c r="R7">
-        <v>70.18624302228866</v>
+        <v>37068.21433660146</v>
       </c>
       <c r="S7">
-        <v>0.006719156644903684</v>
+        <v>0.3348566713887567</v>
       </c>
       <c r="T7">
-        <v>0.006719156644903684</v>
+        <v>0.355554285409964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H8">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J8">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.91615214872979</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N8">
-        <v>1.91615214872979</v>
+        <v>0.189184</v>
       </c>
       <c r="O8">
-        <v>0.01243927392906491</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P8">
-        <v>0.01243927392906491</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q8">
-        <v>44.87784393035319</v>
+        <v>1.693324478179555</v>
       </c>
       <c r="R8">
-        <v>44.87784393035319</v>
+        <v>15.239920303616</v>
       </c>
       <c r="S8">
-        <v>0.004296301529600669</v>
+        <v>0.0001376702135894324</v>
       </c>
       <c r="T8">
-        <v>0.004296301529600669</v>
+        <v>0.0001461796601274801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H9">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J9">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.06019270601575</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N9">
-        <v>1.06019270601575</v>
+        <v>17.168938</v>
       </c>
       <c r="O9">
-        <v>0.006882557575852624</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P9">
-        <v>0.006882557575852624</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q9">
-        <v>24.83057664716954</v>
+        <v>153.6735822254902</v>
       </c>
       <c r="R9">
-        <v>24.83057664716954</v>
+        <v>1383.062240029412</v>
       </c>
       <c r="S9">
-        <v>0.002377111623180012</v>
+        <v>0.01249392845887455</v>
       </c>
       <c r="T9">
-        <v>0.002377111623180012</v>
+        <v>0.01326618277227344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.6630641109068</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H10">
-        <v>12.6630641109068</v>
+        <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.1867396474960424</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J10">
-        <v>0.1867396474960424</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>148.067422587639</v>
+        <v>1.951202</v>
       </c>
       <c r="N10">
-        <v>148.067422587639</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O10">
-        <v>0.9612238938119871</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P10">
-        <v>0.9612238938119871</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q10">
-        <v>1874.987264964002</v>
+        <v>52.39372423364932</v>
       </c>
       <c r="R10">
-        <v>1874.987264964002</v>
+        <v>471.5435181028439</v>
       </c>
       <c r="S10">
-        <v>0.1794986110952238</v>
+        <v>0.004259700547025029</v>
       </c>
       <c r="T10">
-        <v>0.1794986110952238</v>
+        <v>0.004522994204584839</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.6630641109068</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H11">
-        <v>12.6630641109068</v>
+        <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.1867396474960424</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J11">
-        <v>0.1867396474960424</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.99674646997622</v>
+        <v>1.490433</v>
       </c>
       <c r="N11">
-        <v>2.99674646997622</v>
+        <v>2.980866</v>
       </c>
       <c r="O11">
-        <v>0.01945427468309524</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P11">
-        <v>0.01945427468309524</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q11">
-        <v>37.94799267344251</v>
+        <v>40.021143680014</v>
       </c>
       <c r="R11">
-        <v>37.94799267344251</v>
+        <v>240.126862080084</v>
       </c>
       <c r="S11">
-        <v>0.003632884396612388</v>
+        <v>0.003253788313769746</v>
       </c>
       <c r="T11">
-        <v>0.003632884396612388</v>
+        <v>0.002303270777473577</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H12">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I12">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J12">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91615214872979</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N12">
-        <v>1.91615214872979</v>
+        <v>460.154182</v>
       </c>
       <c r="O12">
-        <v>0.01243927392906491</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P12">
-        <v>0.01243927392906491</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q12">
-        <v>24.26435750561715</v>
+        <v>2023.019238204435</v>
       </c>
       <c r="R12">
-        <v>24.26435750561715</v>
+        <v>18207.17314383992</v>
       </c>
       <c r="S12">
-        <v>0.002322905628620292</v>
+        <v>0.1644749687422891</v>
       </c>
       <c r="T12">
-        <v>0.002322905628620292</v>
+        <v>0.1746412270553147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H13">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I13">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J13">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.06019270601575</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N13">
-        <v>1.06019270601575</v>
+        <v>0.189184</v>
       </c>
       <c r="O13">
-        <v>0.006882557575852624</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P13">
-        <v>0.006882557575852624</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q13">
-        <v>13.42528820619321</v>
+        <v>0.8317274655573332</v>
       </c>
       <c r="R13">
-        <v>13.42528820619321</v>
+        <v>7.485547190016</v>
       </c>
       <c r="S13">
-        <v>0.001285246375585935</v>
+        <v>6.762088383354348E-05</v>
       </c>
       <c r="T13">
-        <v>0.001285246375585935</v>
+        <v>7.18005555347374E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.3287791388268</v>
+        <v>13.189183</v>
       </c>
       <c r="H14">
-        <v>17.3287791388268</v>
+        <v>39.567549</v>
       </c>
       <c r="I14">
-        <v>0.2555440041667421</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J14">
-        <v>0.2555440041667421</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>148.067422587639</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N14">
-        <v>148.067422587639</v>
+        <v>17.168938</v>
       </c>
       <c r="O14">
-        <v>0.9612238938119871</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P14">
-        <v>0.9612238938119871</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q14">
-        <v>2565.82766367653</v>
+        <v>75.48142173255131</v>
       </c>
       <c r="R14">
-        <v>2565.82766367653</v>
+        <v>679.3327955929619</v>
       </c>
       <c r="S14">
-        <v>0.2456350027254625</v>
+        <v>0.006136770350787118</v>
       </c>
       <c r="T14">
-        <v>0.2456350027254625</v>
+        <v>0.006516086383317105</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.3287791388268</v>
+        <v>13.189183</v>
       </c>
       <c r="H15">
-        <v>17.3287791388268</v>
+        <v>39.567549</v>
       </c>
       <c r="I15">
-        <v>0.2555440041667421</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J15">
-        <v>0.2555440041667421</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.99674646997622</v>
+        <v>1.951202</v>
       </c>
       <c r="N15">
-        <v>2.99674646997622</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O15">
-        <v>0.01945427468309524</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P15">
-        <v>0.01945427468309524</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q15">
-        <v>51.92995771327678</v>
+        <v>25.73476024796599</v>
       </c>
       <c r="R15">
-        <v>51.92995771327678</v>
+        <v>231.612842231694</v>
       </c>
       <c r="S15">
-        <v>0.004971423250677836</v>
+        <v>0.002092280591029543</v>
       </c>
       <c r="T15">
-        <v>0.004971423250677836</v>
+        <v>0.002221605223916779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.3287791388268</v>
+        <v>13.189183</v>
       </c>
       <c r="H16">
-        <v>17.3287791388268</v>
+        <v>39.567549</v>
       </c>
       <c r="I16">
-        <v>0.2555440041667421</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J16">
-        <v>0.2555440041667421</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.91615214872979</v>
+        <v>1.490433</v>
       </c>
       <c r="N16">
-        <v>1.91615214872979</v>
+        <v>2.980866</v>
       </c>
       <c r="O16">
-        <v>0.01243927392906491</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P16">
-        <v>0.01243927392906491</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q16">
-        <v>33.20457738172693</v>
+        <v>19.657593586239</v>
       </c>
       <c r="R16">
-        <v>33.20457738172693</v>
+        <v>117.945561517434</v>
       </c>
       <c r="S16">
-        <v>0.00317878186876021</v>
+        <v>0.001598196413354402</v>
       </c>
       <c r="T16">
-        <v>0.00317878186876021</v>
+        <v>0.001131321014327906</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H17">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I17">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J17">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.06019270601575</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N17">
-        <v>1.06019270601575</v>
+        <v>460.154182</v>
       </c>
       <c r="O17">
-        <v>0.006882557575852624</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P17">
-        <v>0.006882557575852624</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q17">
-        <v>18.37184524714207</v>
+        <v>2978.284697359096</v>
       </c>
       <c r="R17">
-        <v>18.37184524714207</v>
+        <v>26804.56227623186</v>
       </c>
       <c r="S17">
-        <v>0.001758796321841526</v>
+        <v>0.2421397054723774</v>
       </c>
       <c r="T17">
-        <v>0.001758796321841526</v>
+        <v>0.2571064497283331</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.441190768193</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H18">
-        <v>11.441190768193</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I18">
-        <v>0.1687209282267733</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J18">
-        <v>0.1687209282267733</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>148.067422587639</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N18">
-        <v>148.067422587639</v>
+        <v>0.189184</v>
       </c>
       <c r="O18">
-        <v>0.9612238938119871</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P18">
-        <v>0.9612238938119871</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q18">
-        <v>1694.067628379827</v>
+        <v>1.224467437710222</v>
       </c>
       <c r="R18">
-        <v>1694.067628379827</v>
+        <v>11.020206939392</v>
       </c>
       <c r="S18">
-        <v>0.1621785875977119</v>
+        <v>9.955132395186239E-05</v>
       </c>
       <c r="T18">
-        <v>0.1621785875977119</v>
+        <v>0.0001057046279010129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.441190768193</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H19">
-        <v>11.441190768193</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I19">
-        <v>0.1687209282267733</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J19">
-        <v>0.1687209282267733</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.99674646997622</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N19">
-        <v>2.99674646997622</v>
+        <v>17.168938</v>
       </c>
       <c r="O19">
-        <v>0.01945427468309524</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P19">
-        <v>0.01945427468309524</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q19">
-        <v>34.28634804690689</v>
+        <v>111.1235914298548</v>
       </c>
       <c r="R19">
-        <v>34.28634804690689</v>
+        <v>1000.112322868694</v>
       </c>
       <c r="S19">
-        <v>0.003282343282510446</v>
+        <v>0.009034540493632866</v>
       </c>
       <c r="T19">
-        <v>0.003282343282510446</v>
+        <v>0.009592968764512644</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.441190768193</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H20">
-        <v>11.441190768193</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I20">
-        <v>0.1687209282267733</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J20">
-        <v>0.1687209282267733</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.91615214872979</v>
+        <v>1.951202</v>
       </c>
       <c r="N20">
-        <v>1.91615214872979</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O20">
-        <v>0.01243927392906491</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P20">
-        <v>0.01243927392906491</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q20">
-        <v>21.92306227450045</v>
+        <v>37.88666028937532</v>
       </c>
       <c r="R20">
-        <v>21.92306227450045</v>
+        <v>340.9799426043779</v>
       </c>
       <c r="S20">
-        <v>0.002098765843778934</v>
+        <v>0.003080251116334179</v>
       </c>
       <c r="T20">
-        <v>0.002098765843778934</v>
+        <v>0.00327064257077309</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.441190768193</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H21">
-        <v>11.441190768193</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I21">
-        <v>0.1687209282267733</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J21">
-        <v>0.1687209282267733</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.06019270601575</v>
+        <v>1.490433</v>
       </c>
       <c r="N21">
-        <v>1.06019270601575</v>
+        <v>2.980866</v>
       </c>
       <c r="O21">
-        <v>0.006882557575852624</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P21">
-        <v>0.006882557575852624</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q21">
-        <v>12.12986700057296</v>
+        <v>28.939868222293</v>
       </c>
       <c r="R21">
-        <v>12.12986700057296</v>
+        <v>173.639209333758</v>
       </c>
       <c r="S21">
-        <v>0.001161231502772066</v>
+        <v>0.002352861421867803</v>
       </c>
       <c r="T21">
-        <v>0.001161231502772066</v>
+        <v>0.001665528434501759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12.554453</v>
+      </c>
+      <c r="H22">
+        <v>25.108906</v>
+      </c>
+      <c r="I22">
+        <v>0.1659782810655758</v>
+      </c>
+      <c r="J22">
+        <v>0.1171326810635613</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>153.3847273333333</v>
+      </c>
+      <c r="N22">
+        <v>460.154182</v>
+      </c>
+      <c r="O22">
+        <v>0.9432535557163702</v>
+      </c>
+      <c r="P22">
+        <v>0.9461442014370421</v>
+      </c>
+      <c r="Q22">
+        <v>1925.661350224148</v>
+      </c>
+      <c r="R22">
+        <v>11553.96810134489</v>
+      </c>
+      <c r="S22">
+        <v>0.1565596037867955</v>
+      </c>
+      <c r="T22">
+        <v>0.1108244069870629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12.554453</v>
+      </c>
+      <c r="H23">
+        <v>25.108906</v>
+      </c>
+      <c r="I23">
+        <v>0.1659782810655758</v>
+      </c>
+      <c r="J23">
+        <v>0.1171326810635613</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.189184</v>
+      </c>
+      <c r="O23">
+        <v>0.0003878014971178633</v>
+      </c>
+      <c r="P23">
+        <v>0.0003889899333885992</v>
+      </c>
+      <c r="Q23">
+        <v>0.7917005454506666</v>
+      </c>
+      <c r="R23">
+        <v>4.750203272703999</v>
+      </c>
+      <c r="S23">
+        <v>6.43666258862798E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.556343380454273E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>12.554453</v>
+      </c>
+      <c r="H24">
+        <v>25.108906</v>
+      </c>
+      <c r="I24">
+        <v>0.1659782810655758</v>
+      </c>
+      <c r="J24">
+        <v>0.1171326810635613</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.722979333333332</v>
+      </c>
+      <c r="N24">
+        <v>17.168938</v>
+      </c>
+      <c r="O24">
+        <v>0.0351939902968738</v>
+      </c>
+      <c r="P24">
+        <v>0.03530184396657746</v>
+      </c>
+      <c r="Q24">
+        <v>71.84887506030465</v>
+      </c>
+      <c r="R24">
+        <v>431.0932503618279</v>
+      </c>
+      <c r="S24">
+        <v>0.005841438013313667</v>
+      </c>
+      <c r="T24">
+        <v>0.004134999630292721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>12.554453</v>
+      </c>
+      <c r="H25">
+        <v>25.108906</v>
+      </c>
+      <c r="I25">
+        <v>0.1659782810655758</v>
+      </c>
+      <c r="J25">
+        <v>0.1171326810635613</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.951202</v>
+      </c>
+      <c r="N25">
+        <v>5.853605999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.01199909701844822</v>
+      </c>
+      <c r="P25">
+        <v>0.0120358688262385</v>
+      </c>
+      <c r="Q25">
+        <v>24.49627380250599</v>
+      </c>
+      <c r="R25">
+        <v>146.977642815036</v>
+      </c>
+      <c r="S25">
+        <v>0.00199158949746111</v>
+      </c>
+      <c r="T25">
+        <v>0.001409793584546654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12.554453</v>
+      </c>
+      <c r="H26">
+        <v>25.108906</v>
+      </c>
+      <c r="I26">
+        <v>0.1659782810655758</v>
+      </c>
+      <c r="J26">
+        <v>0.1171326810635613</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.490433</v>
+      </c>
+      <c r="N26">
+        <v>2.980866</v>
+      </c>
+      <c r="O26">
+        <v>0.009165555471189982</v>
+      </c>
+      <c r="P26">
+        <v>0.006129095836753322</v>
+      </c>
+      <c r="Q26">
+        <v>18.711571048149</v>
+      </c>
+      <c r="R26">
+        <v>74.846284192596</v>
+      </c>
+      <c r="S26">
+        <v>0.001521283142119297</v>
+      </c>
+      <c r="T26">
+        <v>0.000717917427854428</v>
       </c>
     </row>
   </sheetData>
